--- a/All_Players.xlsx
+++ b/All_Players.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20048</v>
+        <v>134037</v>
       </c>
     </row>
     <row r="3">
